--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>EOSE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,42 +710,48 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>5500</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -768,13 +774,16 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-5300</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -797,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,13 +822,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>14000</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -839,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,22 +961,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -965,19 +991,22 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,19 +1039,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,51 +1101,57 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>23700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1197,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,22 +1229,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1210,22 +1261,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,19 +1421,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1384,22 +1453,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,22 +1517,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1471,28 +1549,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,22 +1616,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,13 +1678,16 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1603,8 +1695,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1618,49 +1710,55 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,22 +1774,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1705,95 +1806,107 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>3700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,23 +1966,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>176800</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
         <v>176800</v>
       </c>
       <c r="F52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2030,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E54" s="3">
         <v>177300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,13 +2092,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -1977,8 +2107,8 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1992,23 +2122,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,19 +2154,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2050,22 +2186,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="G60" s="3">
+        <v>100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2079,13 +2218,16 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2108,37 +2250,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,22 +2378,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="G66" s="3">
+        <v>100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,22 +2552,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-290800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-100</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,22 +2680,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E76" s="3">
         <v>175500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>177400</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2744,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,22 +2781,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,22 +3019,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-26100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3161,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>170100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,23 +3335,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-23300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>177500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,22 +3399,25 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>EOSE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,16 +714,19 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,23 +743,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>5500</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,17 +784,20 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-5300</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,17 +836,18 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="3">
         <v>14000</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,25 +988,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E17" s="3">
         <v>37200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -994,17 +1021,20 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,17 +1073,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,13 +1106,16 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-21000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1104,17 +1141,20 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>23700</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1130,31 +1170,34 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-66700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1168,8 +1211,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,8 +1246,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,25 +1281,28 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-66700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1264,25 +1316,28 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-66700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,17 +1491,20 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>6000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,25 +1526,28 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-66700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,25 +1596,28 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-66700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1552,31 +1631,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,25 +1703,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E41" s="3">
         <v>121900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1649,8 +1736,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,25 +1771,28 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1713,17 +1806,20 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,29 +1835,32 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,25 +1876,28 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E46" s="3">
         <v>127400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1809,16 +1911,19 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3800</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1835,23 +1940,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,22 +1975,25 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="E49" s="3">
+        <v>300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1899,14 +2010,17 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,26 +2086,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>176800</v>
+        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>176800</v>
       </c>
       <c r="G52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,26 +2156,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E54" s="3">
         <v>138300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>177500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,16 +2223,17 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>20200</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2110,8 +2241,8 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2125,26 +2256,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2157,22 +2291,25 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2189,25 +2326,28 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14100</v>
+        <v>22200</v>
       </c>
       <c r="E60" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2221,16 +2361,19 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2253,16 +2396,19 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2279,14 +2425,17 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,25 +2536,28 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15200</v>
+        <v>26000</v>
       </c>
       <c r="E66" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="H66" s="3">
+        <v>100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,25 +2726,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-290800</v>
+        <v>-313800</v>
       </c>
       <c r="E72" s="3">
+        <v>-292300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,25 +2866,28 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>123100</v>
+        <v>101800</v>
       </c>
       <c r="E76" s="3">
+        <v>120800</v>
+      </c>
+      <c r="F76" s="3">
         <v>175500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>177400</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2715,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,31 +2936,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,25 +2976,28 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-66700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2816,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,31 +3028,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2862,8 +3061,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,25 +3236,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,31 +3288,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3100,8 +3321,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,19 +3391,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E94" s="3">
         <v>170100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3190,14 +3420,17 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,26 +3581,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>177500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3370,8 +3616,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,25 +3651,28 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E102" s="3">
         <v>120700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3432,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,19 +718,22 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3">
+        <v>200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -746,26 +750,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5500</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,20 +794,23 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-5300</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,20 +850,21 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14000</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,28 +1015,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E17" s="3">
         <v>21800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1024,20 +1051,23 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,20 +1107,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,17 +1143,20 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-21000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,20 +1181,23 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>23700</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,34 +1213,37 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-66700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1214,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,28 +1333,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-66700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1319,28 +1371,31 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-66700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,20 +1561,23 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,28 +1599,31 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-66700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,28 +1675,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-66700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1634,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,28 +1790,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E41" s="3">
         <v>100700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>121900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1739,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,28 +1864,31 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1809,20 +1902,23 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1838,32 +1934,35 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,28 +1978,31 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E46" s="3">
         <v>107400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>127400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1914,20 +2016,23 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E47" s="3">
         <v>11100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,26 +2048,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
         <v>8000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1978,25 +2086,28 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2013,14 +2124,17 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,8 +2206,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2098,20 +2218,20 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>176800</v>
       </c>
       <c r="G52" s="3">
         <v>176800</v>
       </c>
       <c r="H52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,29 +2282,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E54" s="3">
         <v>127800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>138300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>177300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>177500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,28 +2354,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E57" s="3">
         <v>20200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2259,29 +2390,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,25 +2428,28 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2329,28 +2466,31 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E60" s="3">
         <v>22200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2364,20 +2504,23 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2399,20 +2542,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,14 +2574,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,28 +2694,31 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E66" s="3">
         <v>26000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,28 +2900,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-367800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-313800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-292300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,28 +3052,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E76" s="3">
         <v>101800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>120800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>175500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>177400</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,28 +3171,31 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-66700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,17 +3227,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3254,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,28 +3453,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,17 +3509,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,8 +3536,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,22 +3621,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>170100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3423,14 +3653,17 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,29 +3827,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>177500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,28 +3903,31 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>120700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>EOSE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,28 +722,31 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -753,34 +757,37 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E9" s="3">
         <v>12400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -797,28 +804,31 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-11800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-5300</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,28 +864,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,31 +944,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>-1300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,31 +1042,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E17" s="3">
         <v>49800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37200</v>
       </c>
-      <c r="G17" s="3">
-        <v>2000</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>14300</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>9200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,28 +1081,31 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-49200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-9200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,28 +1141,29 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>800</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1146,20 +1180,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-53300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,28 +1221,31 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>23700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1216,37 +1256,40 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-54000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-66700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>-30100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-15200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,31 +1385,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-54000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-66700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>-30100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-15200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1374,31 +1426,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-54000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-66700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>-30100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-15200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,28 +1631,31 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E32" s="3">
         <v>4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-800</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1602,31 +1672,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-54000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-66700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>-30100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-15200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,31 +1754,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-54000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-66700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>-30100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-15200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,31 +1877,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E41" s="3">
         <v>74700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,31 +1957,34 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1905,23 +1998,26 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,35 +2033,38 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E45" s="3">
         <v>12200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,31 +2080,34 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E46" s="3">
         <v>91700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>107400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>127400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2019,23 +2121,26 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E47" s="3">
         <v>4100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,29 +2156,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2089,14 +2197,17 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2104,13 +2215,13 @@
         <v>4600</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2127,14 +2238,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,32 +2326,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>176800</v>
       </c>
       <c r="H52" s="3">
         <v>176800</v>
       </c>
       <c r="I52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E54" s="3">
         <v>109900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>127800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>138300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>177300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>177500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,31 +2485,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E57" s="3">
         <v>15200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2393,32 +2524,35 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E58" s="3">
         <v>6100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,28 +2565,31 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2469,31 +2606,34 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E60" s="3">
         <v>24600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2507,23 +2647,26 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E61" s="3">
         <v>13500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2545,23 +2688,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,14 +2723,17 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,31 +2852,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>131700</v>
+      </c>
+      <c r="E66" s="3">
         <v>41300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,31 +3074,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-385900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-367800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-313800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-292300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,31 +3238,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E76" s="3">
         <v>68600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>101800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>120800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>175500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>177400</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,31 +3366,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-54000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-66700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>-30100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-15200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,20 +3426,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3257,8 +3456,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,31 +3670,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-39200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,20 +3730,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3760,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3851,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3633,19 +3863,19 @@
         <v>-4400</v>
       </c>
       <c r="E94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>170100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-176800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3656,14 +3886,17 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,32 +4073,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E100" s="3">
         <v>17600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>177500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,31 +4155,34 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>120700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>EOSE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,28 +725,31 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -760,34 +763,37 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E9" s="3">
         <v>12900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5500</v>
       </c>
-      <c r="H9" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -807,28 +813,31 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-12200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-11800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-5300</v>
       </c>
-      <c r="H10" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-100</v>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,28 +877,29 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E12" s="3">
         <v>5100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14000</v>
       </c>
-      <c r="H12" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4500</v>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,25 +963,28 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -973,8 +992,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -988,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,34 +1068,35 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E17" s="3">
         <v>25700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37200</v>
       </c>
-      <c r="H17" s="3">
-        <v>14300</v>
-      </c>
       <c r="I17" s="3">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1084,28 +1110,31 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-49200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-9200</v>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,28 +1174,29 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10700</v>
+        <v>8000</v>
       </c>
       <c r="E20" s="3">
-        <v>-4700</v>
+        <v>10500</v>
       </c>
       <c r="F20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3">
-        <v>800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>800</v>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1183,23 +1216,26 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13700</v>
+        <v>-28800</v>
       </c>
       <c r="E21" s="3">
-        <v>-53300</v>
+        <v>-13800</v>
       </c>
       <c r="F21" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-21000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,28 +1260,31 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3700</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>3600</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>23700</v>
       </c>
-      <c r="H22" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6900</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1259,40 +1298,43 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-54000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-66700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-30100</v>
-      </c>
       <c r="I23" s="3">
-        <v>-15200</v>
+        <v>-2000</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1306,8 +1348,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,34 +1436,37 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-54000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-66700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-30100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-15200</v>
+        <v>-2000</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1429,34 +1480,37 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-54000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-66700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-30100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-15200</v>
+        <v>-2000</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,28 +1700,31 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10700</v>
+        <v>-8000</v>
       </c>
       <c r="E32" s="3">
-        <v>4700</v>
+        <v>-10500</v>
       </c>
       <c r="F32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-800</v>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1675,34 +1744,37 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-54000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-66700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-30100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-15200</v>
+        <v>-2000</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,34 +1832,37 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-54000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-66700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-30100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-15200</v>
+        <v>-2000</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,34 +1963,35 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E41" s="3">
         <v>144200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>121900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1919,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,34 +2049,37 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2001,26 +2093,29 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2036,38 +2131,41 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E45" s="3">
         <v>17400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,34 +2181,37 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E46" s="3">
         <v>169100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>91700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>107400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>127400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2124,25 +2225,28 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3">
         <v>4700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11100</v>
       </c>
-      <c r="G47" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>3700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2159,32 +2263,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E48" s="3">
         <v>10300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2200,14 +2307,17 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2218,13 +2328,13 @@
         <v>4600</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2241,14 +2351,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,35 +2445,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="3">
-        <v>176800</v>
+        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>176800</v>
       </c>
       <c r="J52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E54" s="3">
         <v>190100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>127800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>138300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>177300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>177500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,25 +2615,26 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E57" s="3">
         <v>13200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20200</v>
       </c>
-      <c r="G57" s="3">
-        <v>11000</v>
-      </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2512,8 +2642,8 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2527,35 +2657,38 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E58" s="3">
         <v>6500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
-        <v>900</v>
-      </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,31 +2701,34 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2609,34 +2745,37 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E60" s="3">
         <v>20900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22200</v>
       </c>
-      <c r="G60" s="3">
-        <v>13600</v>
-      </c>
       <c r="H60" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>100</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2650,25 +2789,28 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E61" s="3">
         <v>18900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>400</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2691,25 +2833,28 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E62" s="3">
         <v>91900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2726,14 +2871,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,34 +3009,37 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E66" s="3">
         <v>131700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26000</v>
       </c>
-      <c r="G66" s="3">
-        <v>17500</v>
-      </c>
       <c r="H66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I66" s="3">
         <v>1900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3">
+        <v>100</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,34 +3247,37 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-416500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-385900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-367800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-313800</v>
       </c>
-      <c r="G72" s="3">
-        <v>-292300</v>
-      </c>
       <c r="H72" s="3">
+        <v>-290800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-2000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,34 +3423,37 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E76" s="3">
         <v>58400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>101800</v>
       </c>
-      <c r="G76" s="3">
-        <v>120800</v>
-      </c>
       <c r="H76" s="3">
+        <v>123100</v>
+      </c>
+      <c r="I76" s="3">
         <v>175500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>177400</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,34 +3560,37 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-54000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-66700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-30100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-15200</v>
+        <v>-2000</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,23 +3624,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3459,8 +3657,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,34 +3886,37 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-39200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-300</v>
-      </c>
       <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,23 +3950,24 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3763,8 +3983,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,28 +4080,31 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4400</v>
+        <v>-3100</v>
       </c>
       <c r="E94" s="3">
         <v>-4400</v>
       </c>
       <c r="F94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-11400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>170100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-176800</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3889,14 +4118,17 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4318,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>106200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>17600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>177500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,34 +4406,37 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E102" s="3">
         <v>70000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>120700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>EOSE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,28 +729,31 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -766,35 +770,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E9" s="3">
         <v>21100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,29 +823,32 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-18000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-12200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-11800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-5300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,29 +891,30 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,28 +983,31 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -995,8 +1015,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,37 +1095,38 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E17" s="3">
         <v>40700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1113,29 +1140,32 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-49200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1208,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,20 +1218,20 @@
         <v>8000</v>
       </c>
       <c r="E20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F20" s="3">
         <v>10500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,26 +1253,29 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-53400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,29 +1300,32 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>23700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,43 +1341,46 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-66700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1351,31 +1394,34 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,37 +1488,40 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-54000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-66700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1483,37 +1535,40 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-66700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1770,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,20 +1782,20 @@
         <v>-8000</v>
       </c>
       <c r="E32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,37 +1817,40 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-66700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,37 +1911,40 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-66700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,37 +2050,38 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E41" s="3">
         <v>104800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>121900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,37 +2142,40 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2096,29 +2189,32 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E44" s="3">
         <v>13000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,41 +2230,44 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E45" s="3">
         <v>22700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,37 +2283,40 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E46" s="3">
         <v>142600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>169100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>91700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>107400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>127400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2228,8 +2330,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2237,20 +2342,20 @@
         <v>3500</v>
       </c>
       <c r="E47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F47" s="3">
         <v>4700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2266,35 +2371,38 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E48" s="3">
         <v>16400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,14 +2418,17 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2331,13 +2442,13 @@
         <v>4600</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2354,14 +2465,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,38 +2565,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1000</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="3">
         <v>1200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>176800</v>
       </c>
       <c r="J52" s="3">
         <v>176800</v>
       </c>
       <c r="K52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>126900</v>
+      </c>
+      <c r="E54" s="3">
         <v>169200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>190100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>127800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>138300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>177300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>177500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,37 +2746,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E57" s="3">
         <v>13700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11400</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2660,38 +2791,41 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
         <v>6600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,34 +2838,37 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2748,37 +2885,40 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E60" s="3">
         <v>29900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>100</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -2792,29 +2932,32 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E61" s="3">
         <v>18500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2836,29 +2979,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E62" s="3">
         <v>88300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>91900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,14 +3020,17 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,37 +3167,40 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E66" s="3">
         <v>136700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>131700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>100</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,37 +3421,40 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-462300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-416500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-385900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-367800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-313800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-290800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,37 +3609,40 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>32400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>101800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>123100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>175500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>177400</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,37 +3755,40 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-66700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,26 +3823,27 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3859,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,37 +4103,40 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-39200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,26 +4171,27 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3986,8 +4207,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,31 +4310,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-4400</v>
       </c>
       <c r="F94" s="3">
         <v>-4400</v>
       </c>
       <c r="G94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-11400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>170100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4121,14 +4351,17 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,38 +4564,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>106200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>177500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,37 +4658,40 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>70000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>120700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,31 +733,34 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -773,38 +777,41 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E9" s="3">
         <v>35600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,32 +833,35 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-32300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-18000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-12200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-11800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-5300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,32 +905,33 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,31 +1003,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1018,8 +1038,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,40 +1122,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E17" s="3">
         <v>55000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1143,32 +1170,35 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-51700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-49200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,31 +1242,32 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="F20" s="3">
-        <v>10500</v>
+        <v>8300</v>
       </c>
       <c r="G20" s="3">
-        <v>-4800</v>
+        <v>10700</v>
       </c>
       <c r="H20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>-5900</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1256,29 +1290,32 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-42700</v>
+        <v>-52500</v>
       </c>
       <c r="E21" s="3">
-        <v>-28800</v>
+        <v>-42300</v>
       </c>
       <c r="F21" s="3">
-        <v>-13800</v>
+        <v>-28500</v>
       </c>
       <c r="G21" s="3">
-        <v>-53400</v>
+        <v>-13700</v>
       </c>
       <c r="H21" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-21000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,31 +1340,34 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F22" s="3">
-        <v>3600</v>
+        <v>1300</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>23700</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>23800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1344,46 +1384,49 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-54000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-66700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1397,16 +1440,19 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1423,8 +1469,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,40 +1540,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-54000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-66700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1538,40 +1590,43 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-54000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-66700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,31 +1840,34 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8000</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
-        <v>-8000</v>
+        <v>-8400</v>
       </c>
       <c r="F32" s="3">
-        <v>-10500</v>
+        <v>-8300</v>
       </c>
       <c r="G32" s="3">
-        <v>4800</v>
+        <v>-10700</v>
       </c>
       <c r="H32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>5900</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1820,40 +1890,43 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-54000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-66700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,40 +1990,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-54000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-66700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,40 +2137,41 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E41" s="3">
         <v>55400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>104800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>121900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,40 +2235,43 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2192,32 +2285,35 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E44" s="3">
         <v>10300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2233,44 +2329,47 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E45" s="3">
         <v>26800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,40 +2385,43 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E46" s="3">
         <v>96200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>142600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>169100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>91700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>107400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>127400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
@@ -2333,32 +2435,35 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="E47" s="3">
         <v>3500</v>
       </c>
       <c r="F47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G47" s="3">
         <v>4700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2374,38 +2479,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E48" s="3">
         <v>19500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2421,14 +2529,17 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2445,13 +2556,13 @@
         <v>4600</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2468,14 +2579,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,41 +2685,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
       <c r="I52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>176800</v>
       </c>
       <c r="K52" s="3">
         <v>176800</v>
       </c>
       <c r="L52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,41 +2785,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E54" s="3">
         <v>126900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>169200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>190100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>109900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>127800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>138300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>177300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>177500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,40 +2877,41 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E57" s="3">
         <v>11700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11400</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2794,41 +2925,44 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,37 +2975,40 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E59" s="3">
         <v>15500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2888,40 +3025,43 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E60" s="3">
         <v>33800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="M60" s="3">
+        <v>100</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
@@ -2935,32 +3075,35 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18200</v>
+        <v>90300</v>
       </c>
       <c r="E61" s="3">
-        <v>18500</v>
+        <v>95300</v>
       </c>
       <c r="F61" s="3">
-        <v>18900</v>
+        <v>102700</v>
       </c>
       <c r="G61" s="3">
+        <v>106800</v>
+      </c>
+      <c r="H61" s="3">
         <v>13500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2982,32 +3125,35 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>85100</v>
+        <v>5700</v>
       </c>
       <c r="E62" s="3">
-        <v>88300</v>
+        <v>8000</v>
       </c>
       <c r="F62" s="3">
-        <v>91900</v>
+        <v>4200</v>
       </c>
       <c r="G62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3023,14 +3169,17 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,40 +3325,43 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>155600</v>
+      </c>
+      <c r="E66" s="3">
         <v>137100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>136700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>131700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>100</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,40 +3595,43 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-519000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-462300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-416500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-385900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-367800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-313800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-290800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,40 +3795,43 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>68600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>101800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>123100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>175500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>177400</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,40 +3950,43 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-54000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-66700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,29 +4022,30 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4061,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,40 +4320,43 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-39200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,29 +4392,30 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4210,8 +4431,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,34 +4540,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-4400</v>
       </c>
       <c r="G94" s="3">
         <v>-4400</v>
       </c>
       <c r="H94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-11400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>170100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4354,14 +4584,17 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +4810,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>106200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>177500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,40 +4910,43 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>70000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>120700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>EOSE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,34 +737,37 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>200</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -780,41 +784,44 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="3">
         <v>36900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,35 +843,38 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-31000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-32300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-18000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-12200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-11800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-5300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,35 +919,36 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,34 +1023,37 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1041,8 +1061,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,43 +1149,44 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E17" s="3">
         <v>63300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1173,35 +1200,38 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-57400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-51700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-49200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,35 +1276,36 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,32 +1327,35 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-52500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-42300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-53300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,35 +1380,38 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>23800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,49 +1427,52 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-54000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-66700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1443,19 +1486,22 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1472,8 +1518,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,43 +1592,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-54000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-66700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1593,43 +1645,46 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-56700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-54000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-66700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,35 +1910,38 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,43 +1963,46 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-56700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-54000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-66700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,43 +2069,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-56700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-54000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-66700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,43 +2224,44 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E41" s="3">
         <v>16300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>104800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>74700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>121900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,43 +2328,46 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2288,35 +2381,38 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E44" s="3">
         <v>12900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,47 +2428,50 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E45" s="3">
         <v>27600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,43 +2487,46 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E46" s="3">
         <v>60500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>96200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>142600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>169100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>91700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>107400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>127400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2447,26 +2552,26 @@
         <v>3700</v>
       </c>
       <c r="E47" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="F47" s="3">
         <v>3500</v>
       </c>
       <c r="G47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H47" s="3">
         <v>4700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,41 +2587,44 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E48" s="3">
         <v>25800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2532,14 +2640,17 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2559,13 +2670,13 @@
         <v>4600</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2582,14 +2693,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,44 +2805,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>176800</v>
       </c>
       <c r="L52" s="3">
         <v>176800</v>
       </c>
       <c r="M52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,44 +2911,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E54" s="3">
         <v>97700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>126900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>169200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>190100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>109900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>127800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>138300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>177300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>177500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,43 +3008,44 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E57" s="3">
         <v>29100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11400</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -2928,44 +3059,47 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>14000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,40 +3112,43 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E59" s="3">
         <v>16600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -3028,43 +3165,46 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E60" s="3">
         <v>59600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="N60" s="3">
+        <v>100</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
@@ -3078,35 +3218,38 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E61" s="3">
         <v>90300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>95300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>102700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>106800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3128,35 +3271,38 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E62" s="3">
         <v>5700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,14 +3318,17 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,43 +3483,46 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>226800</v>
+      </c>
+      <c r="E66" s="3">
         <v>155600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>137100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>136700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>131700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
+      <c r="N66" s="3">
+        <v>100</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,43 +3769,46 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-589700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-519000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-462300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-416500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-385900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-367800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-313800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-290800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,43 +3981,46 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-57800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>68600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>101800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>123100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>175500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>177400</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,43 +4145,46 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-56700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-54000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-66700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,32 +4221,33 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4064,8 +4263,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,43 +4537,46 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-44300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,32 +4613,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4434,8 +4655,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,37 +4770,40 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4400</v>
       </c>
       <c r="H94" s="3">
         <v>-4400</v>
       </c>
       <c r="I94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>170100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4587,14 +4817,17 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E100" s="3">
         <v>11800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>106200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>177500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,31 +5109,34 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4913,43 +5162,46 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-49100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>70000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>120700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,37 +740,40 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>6100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>200</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -787,44 +790,47 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E9" s="3">
         <v>50000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,38 +852,41 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-43900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-31000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-32300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-18000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-12200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-11800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-5300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,38 +932,39 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,37 +1042,40 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1064,8 +1083,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1079,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,46 +1175,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E17" s="3">
         <v>70600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1203,38 +1229,41 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-64500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-57400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-51700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-49200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1309,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,29 +1319,29 @@
         <v>-400</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,35 +1363,38 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-63300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-52500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-42300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-53300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,38 +1419,41 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>23800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,52 +1469,55 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-70600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-54000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-66700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1489,22 +1531,25 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1521,8 +1566,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1542,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,46 +1643,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-70700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-54000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-66700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1648,46 +1699,49 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-70700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-54000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-66700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +1979,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1922,29 +1991,29 @@
         <v>400</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,46 +2035,49 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-70700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-54000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-66700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,46 +2147,49 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-70700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-54000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-66700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -2125,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,46 +2310,47 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E41" s="3">
         <v>38400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>74700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2278,8 +2364,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,46 +2420,49 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2384,38 +2476,41 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E44" s="3">
         <v>23200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,50 +2526,53 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E45" s="3">
         <v>13600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,46 +2588,49 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E46" s="3">
         <v>81600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>60500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>96200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>142600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>169100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>91700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>107400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>127400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2543,38 +2644,41 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3700</v>
+        <v>800</v>
       </c>
       <c r="E47" s="3">
         <v>3700</v>
       </c>
       <c r="F47" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="G47" s="3">
         <v>3500</v>
       </c>
       <c r="H47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I47" s="3">
         <v>4700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,44 +2694,47 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E48" s="3">
         <v>34400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2643,14 +2750,17 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2673,13 +2783,13 @@
         <v>4600</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>300</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2696,14 +2806,17 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,47 +2924,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E52" s="3">
         <v>14200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1000</v>
       </c>
       <c r="J52" s="3">
         <v>1000</v>
       </c>
       <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3">
         <v>1200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>176800</v>
       </c>
       <c r="M52" s="3">
         <v>176800</v>
       </c>
       <c r="N52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,47 +3036,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E54" s="3">
         <v>138500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>126900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>169200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>190100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>109900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>127800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>138300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>177300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>177500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,46 +3138,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E57" s="3">
         <v>35500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11400</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -3062,47 +3192,50 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,43 +3248,46 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E59" s="3">
         <v>17500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -3168,46 +3304,49 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E60" s="3">
         <v>55800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>59600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3">
+        <v>100</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
@@ -3221,38 +3360,41 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>170400</v>
+      </c>
+      <c r="E61" s="3">
         <v>160800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>90300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>95300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>102700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>106800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3274,38 +3416,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E62" s="3">
         <v>10100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3321,14 +3466,17 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,46 +3640,49 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>239500</v>
+      </c>
+      <c r="E66" s="3">
         <v>226800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>155600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>137100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>136700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>131700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>41300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
+      <c r="O66" s="3">
+        <v>100</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,46 +3942,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-646300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-589700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-519000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-462300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-416500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-385900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-367800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-313800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-290800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,46 +4166,49 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-132700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-88300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-57800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>68600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>101800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>123100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>175500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>177400</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,46 +4339,49 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-70700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-54000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-66700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,35 +4419,36 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4266,8 +4464,8 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,46 +4753,49 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-72100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-44300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-39200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,35 +4833,36 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4658,8 +4878,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,40 +4999,43 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-4400</v>
       </c>
       <c r="I94" s="3">
         <v>-4400</v>
       </c>
       <c r="J94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>170100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4820,14 +5049,17 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,47 +5301,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E100" s="3">
         <v>112900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>106200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>17600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>177500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,16 +5357,19 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -5138,8 +5386,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5165,46 +5413,49 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E102" s="3">
         <v>33500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-49100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>70000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>120700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,40 +744,43 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>200</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -793,47 +797,50 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E9" s="3">
         <v>30800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>50000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>35600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,41 +862,44 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-28100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-43900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-31000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-32300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-18000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-12200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-11800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-5300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,41 +946,42 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,40 +1062,43 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3">
         <v>4300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1086,8 +1106,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,49 +1202,50 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E17" s="3">
         <v>51300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1232,41 +1259,44 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-48600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-64500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-51700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-49200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,41 +1343,42 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>-13100</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
       </c>
       <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,38 +1400,41 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-46000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-63300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-52500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-42300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-28500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-53300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,41 +1459,44 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E22" s="3">
         <v>7600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>23800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,55 +1512,58 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-70600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-54000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-66700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1534,8 +1577,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,16 +1589,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1569,8 +1615,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,49 +1695,52 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-70700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-54000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-66700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1702,49 +1754,52 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-56600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-54000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-66700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,41 +2049,44 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>13100</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
       </c>
       <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,49 +2108,52 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-56600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-70700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-56700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-54000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-66700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,49 +2226,52 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-56600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-70700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-56700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-54000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-66700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,49 +2397,50 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E41" s="3">
         <v>17100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>104800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>144200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>74700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2367,8 +2454,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,49 +2513,52 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2479,41 +2572,44 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E44" s="3">
         <v>23300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,53 +2625,56 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>11300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,49 +2690,52 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E46" s="3">
         <v>55100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>81600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>60500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>96200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>142600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>169100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>91700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>107400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>127400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
@@ -2647,8 +2749,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2656,32 +2761,32 @@
         <v>800</v>
       </c>
       <c r="E47" s="3">
-        <v>3700</v>
+        <v>800</v>
       </c>
       <c r="F47" s="3">
         <v>3700</v>
       </c>
       <c r="G47" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="H47" s="3">
         <v>3500</v>
       </c>
       <c r="I47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J47" s="3">
         <v>4700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,47 +2802,50 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E48" s="3">
         <v>31500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,19 +2861,22 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E49" s="3">
         <v>4600</v>
@@ -2786,13 +2897,13 @@
         <v>4600</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2809,14 +2920,17 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,50 +3044,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E52" s="3">
         <v>14800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1000</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
       </c>
       <c r="L52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M52" s="3">
         <v>1200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>176800</v>
       </c>
       <c r="N52" s="3">
         <v>176800</v>
       </c>
       <c r="O52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,50 +3162,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E54" s="3">
         <v>106800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>138500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>126900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>169200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>190100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>109900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>127800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>177300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>177500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,49 +3269,50 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E57" s="3">
         <v>34700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11400</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3195,50 +3326,53 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,46 +3385,49 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E59" s="3">
         <v>20300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3307,49 +3444,52 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E60" s="3">
         <v>60600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
+      <c r="P60" s="3">
+        <v>100</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
@@ -3363,41 +3503,44 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E61" s="3">
         <v>170400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>160800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>90300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>95300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>102700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>106800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3419,41 +3562,44 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E62" s="3">
         <v>8500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,14 +3615,17 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,49 +3798,52 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>275300</v>
+      </c>
+      <c r="E66" s="3">
         <v>239500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>226800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>137100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>136700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>131700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
+      <c r="P66" s="3">
+        <v>100</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,49 +4116,52 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-717900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-646300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-589700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-519000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-462300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-416500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-385900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-367800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-313800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-290800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,49 +4352,52 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-175600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-132700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-88300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-57800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>68600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>101800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>123100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>175500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>177400</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,49 +4534,52 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-56600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-70700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-56700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-54000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-66700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,38 +4618,39 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4467,8 +4666,8 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,49 +4970,52 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-72100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-44300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-35500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-39200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,38 +5054,39 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4881,8 +5102,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,43 +5229,46 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-4400</v>
       </c>
       <c r="J94" s="3">
         <v>-4400</v>
       </c>
       <c r="K94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-11400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>170100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -5052,14 +5282,17 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,50 +5547,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E100" s="3">
         <v>16000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>112900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>106200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>17600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>177500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5371,8 +5620,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -5389,8 +5638,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5416,49 +5665,52 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-49100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>70000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>120700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,43 +748,46 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>8800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>200</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -800,50 +804,53 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E9" s="3">
         <v>26900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>35600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -865,44 +872,47 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-18100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-28100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-43900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-31000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-32300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-18000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-12200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-11800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-5300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,44 +960,45 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,43 +1082,46 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1109,8 +1129,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,52 +1229,53 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E17" s="3">
         <v>48700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>51300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1262,44 +1289,47 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-39900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-48600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-64500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-57400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-51700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-49200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,44 +1377,45 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-400</v>
       </c>
       <c r="F20" s="3">
         <v>-400</v>
       </c>
       <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,41 +1437,44 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-109500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-50300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-46000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-63300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-52500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-42300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-53300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,44 +1499,47 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E22" s="3">
         <v>18600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>23800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1515,58 +1555,61 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-71600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-70600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-56700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-45800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-54000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-66700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1580,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1618,8 +1664,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,52 +1747,55 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-71600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-70700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-56700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-45800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-54000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-66700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1757,52 +1809,55 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-71600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-56700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-54000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-66700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,44 +2119,47 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E32" s="3">
         <v>13100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>400</v>
       </c>
       <c r="F32" s="3">
         <v>400</v>
       </c>
       <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,52 +2181,55 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-71600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-56700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-54000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-66700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,52 +2305,55 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-71600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-56700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-54000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-66700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,52 +2484,53 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E41" s="3">
         <v>16100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>104800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
@@ -2457,8 +2544,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,52 +2606,55 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>7500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2575,44 +2668,47 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E44" s="3">
         <v>14100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2628,56 +2724,59 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,52 +2792,55 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E46" s="3">
         <v>50000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>55100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>81600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>60500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>96200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>142600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>169100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>91700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>107400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>127400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
@@ -2752,8 +2854,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,32 +2869,32 @@
         <v>800</v>
       </c>
       <c r="F47" s="3">
-        <v>3700</v>
+        <v>800</v>
       </c>
       <c r="G47" s="3">
         <v>3700</v>
       </c>
       <c r="H47" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="I47" s="3">
         <v>3500</v>
       </c>
       <c r="J47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2805,50 +2910,53 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E48" s="3">
         <v>28700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,14 +2972,17 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2879,7 +2990,7 @@
         <v>4700</v>
       </c>
       <c r="E49" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F49" s="3">
         <v>4600</v>
@@ -2900,13 +3011,13 @@
         <v>4600</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2923,14 +3034,17 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,53 +3164,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E52" s="3">
         <v>15500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1000</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
       <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="3">
         <v>1200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>176800</v>
       </c>
       <c r="O52" s="3">
         <v>176800</v>
       </c>
       <c r="P52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,53 +3288,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E54" s="3">
         <v>99700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>106800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>138500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>126900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>169200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>190100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>109900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>127800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>177300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>177500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,52 +3400,53 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E57" s="3">
         <v>32500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11400</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3329,53 +3460,56 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3">
         <v>11200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3388,49 +3522,52 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E59" s="3">
         <v>21900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3447,52 +3584,55 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E60" s="3">
         <v>65700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
+      <c r="Q60" s="3">
+        <v>100</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
@@ -3506,44 +3646,47 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>229500</v>
+      </c>
+      <c r="E61" s="3">
         <v>198600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>170400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>160800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>90300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>95300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>102700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>106800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3565,44 +3708,47 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E62" s="3">
         <v>11100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3618,14 +3764,17 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,52 +3956,55 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E66" s="3">
         <v>275300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>239500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>226800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>155600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>137100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>136700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>131700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
+      <c r="Q66" s="3">
+        <v>100</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,52 +4290,55 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-849600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-717900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-646300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-589700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-519000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-462300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-416500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-385900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-367800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-313800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-290800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,52 +4538,55 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-229500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-175600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-132700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-88300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-57800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>123100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>175500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>177400</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,52 +4729,55 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-71600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-56700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-54000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-66700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,41 +4817,42 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4669,8 +4868,8 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,52 +5187,55 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-72100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-44300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-42700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-39200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,41 +5275,42 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5105,8 +5326,8 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,46 +5459,49 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-4400</v>
       </c>
       <c r="K94" s="3">
         <v>-4400</v>
       </c>
       <c r="L94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="M94" s="3">
         <v>-11400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>170100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5285,14 +5515,17 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,53 +5793,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E100" s="3">
         <v>32500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>112900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>106200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>177500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5623,8 +5872,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -5641,8 +5890,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5668,52 +5917,55 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-49100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>70000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOSE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,46 +752,49 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>200</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -807,53 +811,56 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E9" s="3">
         <v>11200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,47 +882,50 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-11000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-18100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-28100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-43900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-31000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-32300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-18000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-12200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-11800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-5300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,47 +974,48 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,46 +1102,49 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>7300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1132,8 +1152,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,55 +1256,56 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E17" s="3">
         <v>36700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>51300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1292,47 +1319,50 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-39900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-48600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-64500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-57400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-51700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-49200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,47 +1411,48 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-75500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-400</v>
       </c>
       <c r="H20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,44 +1474,47 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-109500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-50300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-46000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-63300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-52500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-42300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-28500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-53300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,47 +1539,50 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E22" s="3">
         <v>19600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>23800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,61 +1598,64 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-131600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-71600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-70600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-56700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-45800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-54000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-66700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1626,8 +1669,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,16 +1687,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1667,8 +1713,8 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,55 +1799,58 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-131600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-71600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-70700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-45800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-54000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-66700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1812,55 +1864,58 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-131600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-71600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-54000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-66700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,47 +2189,50 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="E32" s="3">
         <v>75500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>400</v>
       </c>
       <c r="H32" s="3">
+        <v>400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,55 +2254,58 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-131600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-71600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-56600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-70700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-45800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-54000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-66700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,55 +2384,58 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-131600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-71600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-56600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-70700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-45800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-54000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-66700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,55 +2571,56 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E41" s="3">
         <v>23200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
@@ -2547,8 +2634,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,55 +2699,58 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
@@ -2671,47 +2764,50 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E44" s="3">
         <v>16600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,59 +2823,62 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E45" s="3">
         <v>20500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,55 +2894,58 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E46" s="3">
         <v>64000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>55100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>81600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>60500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>96200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>142600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>91700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>107400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>127400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2872,32 +2977,32 @@
         <v>800</v>
       </c>
       <c r="G47" s="3">
-        <v>3700</v>
+        <v>800</v>
       </c>
       <c r="H47" s="3">
         <v>3700</v>
       </c>
       <c r="I47" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J47" s="3">
         <v>3500</v>
       </c>
       <c r="K47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L47" s="3">
         <v>4700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2913,53 +3018,56 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E48" s="3">
         <v>23900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2975,25 +3083,28 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E49" s="3">
         <v>4700</v>
       </c>
       <c r="F49" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G49" s="3">
         <v>4600</v>
@@ -3014,13 +3125,13 @@
         <v>4600</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>4600</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -3037,14 +3148,17 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,56 +3284,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E52" s="3">
         <v>15600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1000</v>
       </c>
       <c r="M52" s="3">
         <v>1000</v>
       </c>
       <c r="N52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O52" s="3">
         <v>1200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>176800</v>
       </c>
       <c r="P52" s="3">
         <v>176800</v>
       </c>
       <c r="Q52" s="3">
+        <v>176800</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,56 +3414,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E54" s="3">
         <v>109000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>99700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>106800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>138500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>126900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>169200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>190100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>127800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>138300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>177300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>177500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,55 +3531,56 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E57" s="3">
         <v>15400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11400</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3463,56 +3594,59 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3525,52 +3659,55 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E59" s="3">
         <v>24500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3587,55 +3724,58 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E60" s="3">
         <v>43000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>65700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
+      <c r="R60" s="3">
+        <v>100</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
@@ -3649,47 +3789,50 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E61" s="3">
         <v>229500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>198600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>170400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>160800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>90300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>95300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>102700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>106800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3711,47 +3854,50 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E62" s="3">
         <v>65900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3767,14 +3913,17 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,55 +4114,58 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E66" s="3">
         <v>338500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>275300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>239500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>226800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>155600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>137100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>136700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>131700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
+      <c r="R66" s="3">
+        <v>100</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,55 +4464,58 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-834600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-849600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-717900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-646300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-589700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-519000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-462300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-416500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-385900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-367800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-313800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-290800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
+      <c r="R72" s="3">
+        <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,55 +4724,58 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-128300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-229500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-175600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-132700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-88300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-57800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>101800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>123100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>175500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>177400</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,55 +4924,58 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-131600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-71600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-56600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-70700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-45800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-54000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-66700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,44 +5016,45 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4871,8 +5070,8 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,55 +5404,58 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-45100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-72100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-44300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-42700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-39200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,44 +5496,45 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5329,8 +5550,8 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,49 +5689,52 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-4400</v>
       </c>
       <c r="L94" s="3">
         <v>-4400</v>
       </c>
       <c r="M94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="N94" s="3">
         <v>-11400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>170100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5518,14 +5748,17 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,56 +6039,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E100" s="3">
         <v>60200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>112900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>106200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>177500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5875,8 +6124,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -5893,8 +6142,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5920,55 +6169,58 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E102" s="3">
         <v>7900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>33500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-49100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>70000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>120700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
